--- a/Detalles.xlsx
+++ b/Detalles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin\git\CajeroAutomaticoTRZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01170FC7-D8D4-4661-9595-8E786580177C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DBEAF6-B0A1-4652-88DF-67DC4C9993E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F1EA31FE-6715-4FF4-8315-48846EFDBE6A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>N° Tarjeta</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>ramon.falopero</t>
   </si>
 </sst>
 </file>
@@ -156,489 +159,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <b val="0"/>
@@ -739,6 +260,43 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="6" tint="0.59996337778862885"/>
@@ -778,6 +336,43 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="6" tint="0.59996337778862885"/>
@@ -817,6 +412,43 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="6" tint="0.59996337778862885"/>
@@ -856,6 +488,43 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="6" tint="0.59996337778862885"/>
@@ -895,6 +564,43 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="6" tint="0.59996337778862885"/>
@@ -934,6 +640,43 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="6" tint="0.59996337778862885"/>
@@ -973,6 +716,43 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="6" tint="0.59996337778862885"/>
@@ -1005,6 +785,43 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
       <fill>
         <patternFill patternType="solid">
@@ -1052,6 +869,43 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="6" tint="0.59996337778862885"/>
@@ -1091,6 +945,43 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="6" tint="0.59996337778862885"/>
@@ -1130,6 +1021,43 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="6" tint="0.59996337778862885"/>
@@ -1169,6 +1097,43 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="6" tint="0.59996337778862885"/>
@@ -1190,24 +1155,49 @@
           <color theme="6" tint="0.59996337778862885"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
         </bottom>
       </border>
     </dxf>
@@ -1225,7 +1215,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54BA610F-55A1-48C3-8963-3FC1B9AA88E7}" name="Tabla2" displayName="Tabla2" ref="A1:M13" dataDxfId="0" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54BA610F-55A1-48C3-8963-3FC1B9AA88E7}" name="Tabla2" displayName="Tabla2" ref="A1:M13" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="A1:M13" xr:uid="{22463CBF-6BA9-4E0D-8F4C-BF7BC9F045A1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1242,19 +1232,19 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{06224D9E-6757-4244-9D72-12CC21FA89F6}" name="N° Tarjeta" totalsRowLabel="Total" dataDxfId="28" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{3F9CF7E7-E5ED-468B-9EC3-0EFAA01A6ADE}" name="PIN" dataDxfId="27" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{590DC7ED-498D-4910-AA59-10DB763CFF7F}" name="CUIT" dataDxfId="26" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{C9E0EB50-5206-4168-8F86-AE9CDE3F019B}" name="ARS" dataDxfId="25" totalsRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{685B2E89-D133-45B3-A552-B2093347E8D0}" name="USD" dataDxfId="24" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{F6E60C4B-071A-47B3-B2DF-BBEABA0DA9D1}" name="CC" dataDxfId="23" totalsRowDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{82B94F15-AA89-4C4D-BB14-B5FC14860706}" name="Alias ARS" dataDxfId="22" totalsRowDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{7D078A5F-9B82-4AD3-B299-7DD443472F7B}" name="Alias USD" dataDxfId="21" totalsRowDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{FEAC969F-E9C5-479A-BC17-037777D537F8}" name="Alias CC" dataDxfId="20" totalsRowDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{F4B481C1-BCCB-40E2-9A85-B40D5D6EB67C}" name="Saldo ARS" dataDxfId="19" totalsRowDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{42A69F9F-DBF5-453B-BE78-009070F5DE43}" name="Saldo USD" dataDxfId="18" totalsRowDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{50DABD68-5B22-410C-9011-DE0AD365642D}" name="Saldo CC" dataDxfId="17" totalsRowDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{086474CB-B4F4-443C-9917-923ED6F27D97}" name="Descubierto" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{06224D9E-6757-4244-9D72-12CC21FA89F6}" name="N° Tarjeta" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{3F9CF7E7-E5ED-468B-9EC3-0EFAA01A6ADE}" name="PIN" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{590DC7ED-498D-4910-AA59-10DB763CFF7F}" name="CUIT" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{C9E0EB50-5206-4168-8F86-AE9CDE3F019B}" name="ARS" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{685B2E89-D133-45B3-A552-B2093347E8D0}" name="USD" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{F6E60C4B-071A-47B3-B2DF-BBEABA0DA9D1}" name="CC" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{82B94F15-AA89-4C4D-BB14-B5FC14860706}" name="Alias ARS" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{7D078A5F-9B82-4AD3-B299-7DD443472F7B}" name="Alias USD" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{FEAC969F-E9C5-479A-BC17-037777D537F8}" name="Alias CC" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{F4B481C1-BCCB-40E2-9A85-B40D5D6EB67C}" name="Saldo ARS" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{42A69F9F-DBF5-453B-BE78-009070F5DE43}" name="Saldo USD" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{50DABD68-5B22-410C-9011-DE0AD365642D}" name="Saldo CC" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{086474CB-B4F4-443C-9917-923ED6F27D97}" name="Descubierto" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1560,7 +1550,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,7 +1628,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>26</v>

--- a/Detalles.xlsx
+++ b/Detalles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin\git\CajeroAutomaticoTRZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DBEAF6-B0A1-4652-88DF-67DC4C9993E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2A8B3B-DAA2-4C7F-9B2E-4FDAD9CD07B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F1EA31FE-6715-4FF4-8315-48846EFDBE6A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>N° Tarjeta</t>
   </si>
@@ -78,9 +78,6 @@
     <t>isla.pez.arbol</t>
   </si>
   <si>
-    <t>12000.03</t>
-  </si>
-  <si>
     <t>sol.monte.valle</t>
   </si>
   <si>
@@ -108,13 +105,37 @@
     <t>lobo.luna.pasto</t>
   </si>
   <si>
-    <t>200.00</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
-    <t>ramon.falopero</t>
+    <t>ramon.perro</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>28.08</t>
+  </si>
+  <si>
+    <t>lucho.probando.cc</t>
+  </si>
+  <si>
+    <t>-1521.90</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>lucho.probando.segundo.ars</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>lucho.probando.segundo.cc</t>
+  </si>
+  <si>
+    <t>1000.00</t>
   </si>
 </sst>
 </file>
@@ -1550,18 +1571,22 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1619,31 +1644,31 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1658,31 +1683,31 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1699,28 +1724,28 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -1735,34 +1760,34 @@
         <v>203115739</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1776,34 +1801,34 @@
         <v>271060482</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
